--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -731,12 +731,49 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -761,44 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1113,33 +1113,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="G1" s="67" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1151,11 +1151,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1165,11 +1165,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1181,9 +1181,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="73"/>
-      <c r="G3" s="54" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="G3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1193,7 +1193,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1220,7 +1220,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1253,14 +1253,14 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="58" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1287,12 +1287,12 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1325,7 +1325,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="57"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1373,14 +1373,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1398,12 +1398,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="55"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="55"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1421,14 +1421,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1444,12 +1444,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="59"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1463,14 +1463,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="73" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="73" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1486,12 +1486,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="61"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1507,14 +1507,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="73" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="73" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1523,7 +1523,7 @@
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
+      <c r="A16" s="54">
         <v>46539</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1532,12 +1532,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="61"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1555,14 +1555,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="75" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="75" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1580,12 +1580,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="63"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1607,14 +1607,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="58" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="54" t="s">
+      <c r="M19" s="58" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1635,12 +1635,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="55"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="55"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="58" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="58" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1685,12 +1685,12 @@
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="30"/>
-      <c r="G22" s="55"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="55"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1700,20 +1700,20 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+      <c r="A23" s="54">
         <v>37073</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="54" t="s">
+      <c r="M23" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1726,12 +1726,12 @@
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="55"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1833,14 +1833,14 @@
       </c>
     </row>
     <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="54" t="s">
+      <c r="M37" s="58" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="55"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1848,14 +1848,36 @@
       </c>
     </row>
     <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="76"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1864,28 +1886,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -732,6 +732,37 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,12 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,31 +799,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1113,33 +1113,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="G1" s="60" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="G1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1151,11 +1151,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1165,11 +1165,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1181,9 +1181,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="66"/>
-      <c r="G3" s="58" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="75"/>
+      <c r="G3" s="55" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1193,7 +1193,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="55" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1220,7 +1220,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="59"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1253,14 +1253,14 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="55" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1287,12 +1287,12 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="M6" s="59"/>
+      <c r="M6" s="56"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="62" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1325,7 +1325,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="62" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1373,14 +1373,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="55" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1398,12 +1398,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="59"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1421,14 +1421,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="64" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="64" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1444,12 +1444,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="72"/>
+      <c r="M12" s="65"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1463,14 +1463,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="58" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="58" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1486,12 +1486,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="74"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1507,14 +1507,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="73" t="s">
+      <c r="M15" s="58" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1532,12 +1532,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="74"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1555,14 +1555,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1580,12 +1580,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="76"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="76"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1607,14 +1607,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="55" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="55" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1635,12 +1635,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="59"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1659,14 +1659,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="55" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1685,12 +1685,12 @@
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="30"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="59"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1706,14 +1706,14 @@
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="55" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1726,12 +1726,12 @@
       <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="59"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="59"/>
+      <c r="M24" s="56"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1833,14 +1833,14 @@
       </c>
     </row>
     <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="58" t="s">
+      <c r="M37" s="55" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="59"/>
+      <c r="M38" s="56"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1848,36 +1848,14 @@
       </c>
     </row>
     <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="77"/>
+      <c r="M39" s="57"/>
     </row>
     <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="77"/>
+      <c r="M40" s="57"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1886,6 +1864,28 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Wiki (Objective, Description)</t>
+  </si>
+  <si>
+    <t>PSR w3</t>
   </si>
 </sst>
 </file>
@@ -731,12 +734,49 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -761,44 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1094,7 +1097,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C22" sqref="C22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1113,33 +1116,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="G1" s="67" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1151,11 +1154,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1165,11 +1168,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1181,9 +1184,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="73"/>
-      <c r="G3" s="54" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="G3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1193,7 +1196,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1220,7 +1223,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +1231,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="55"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1253,14 +1256,14 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="58" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1287,12 +1290,12 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1318,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1325,7 +1328,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1348,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="57"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1359,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="57"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1373,14 +1376,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1398,12 +1401,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="55"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="55"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1421,14 +1424,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1444,12 +1447,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="59"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1463,14 +1466,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="73" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="73" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1486,12 +1489,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="61"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1507,14 +1510,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="73" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="73" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1523,7 +1526,7 @@
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
+      <c r="A16" s="54">
         <v>46539</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1532,12 +1535,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="61"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1555,14 +1558,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="75" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="75" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1580,12 +1583,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="63"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1607,14 +1610,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="58" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="54" t="s">
+      <c r="M19" s="58" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1635,12 +1638,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="55"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="55"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1659,14 +1662,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="58" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="58" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1678,19 +1681,24 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="30"/>
-      <c r="G22" s="55"/>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="59"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="55"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1700,38 +1708,47 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+      <c r="A23" s="47"/>
+      <c r="B23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="M23" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
         <v>37073</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="M23" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="55"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1740,7 +1757,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M25" s="49" t="s">
         <v>39</v>
@@ -1750,6 +1767,9 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="M26" s="50"/>
       <c r="N26" s="28"/>
       <c r="O26" s="30"/>
@@ -1833,14 +1853,14 @@
       </c>
     </row>
     <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="54" t="s">
+      <c r="M37" s="58" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="55"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1848,14 +1868,36 @@
       </c>
     </row>
     <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="76"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="76"/>
+      <c r="M40" s="77"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1864,28 +1906,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Consultation With Sir Sean/Sir Quesada</t>
   </si>
   <si>
-    <t>Wiki</t>
-  </si>
-  <si>
     <t>Event table (Existing)</t>
   </si>
   <si>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>PSR w3</t>
+  </si>
+  <si>
+    <t>Wiki (Scope and Limitation)</t>
+  </si>
+  <si>
+    <t>Wiki ()</t>
   </si>
 </sst>
 </file>
@@ -735,6 +738,37 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,12 +778,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,31 +805,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1096,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:E22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1116,33 +1119,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="G1" s="60" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="G1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1154,11 +1157,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1168,11 +1171,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1184,9 +1187,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="66"/>
-      <c r="G3" s="58" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="75"/>
+      <c r="G3" s="55" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1196,7 +1199,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="55" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1223,7 +1226,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1231,7 +1234,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="59"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1256,14 +1259,14 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="55" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="55" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1290,12 +1293,12 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="M6" s="59"/>
+      <c r="M6" s="56"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1318,7 +1321,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="62" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1328,7 +1331,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="62" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1351,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1362,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1376,14 +1379,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="55" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1401,12 +1404,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="59"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1424,14 +1427,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="64" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="64" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1447,12 +1450,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="72"/>
+      <c r="M12" s="65"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1466,14 +1469,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="58" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="58" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1489,12 +1492,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="74"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1510,14 +1513,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="73" t="s">
+      <c r="M15" s="58" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1530,17 +1533,17 @@
         <v>46539</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="74"/>
+      <c r="M16" s="59"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1558,14 +1561,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="60" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1583,12 +1586,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="76"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="76"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1610,14 +1613,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="55" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="55" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1638,12 +1641,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="59"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1662,14 +1665,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="55" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="55" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1693,12 +1696,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="59"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1708,9 +1711,8 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="21" t="s">
-        <v>49</v>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -1721,14 +1723,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="55" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1737,27 +1739,32 @@
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="47"/>
+      <c r="B24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
         <v>37073</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="30"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M25" s="49" t="s">
         <v>39</v>
@@ -1768,7 +1775,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="28"/>
@@ -1779,6 +1786,9 @@
     </row>
     <row r="27" spans="1:17" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="M27" s="51" t="s">
         <v>40</v>
       </c>
@@ -1853,14 +1863,14 @@
       </c>
     </row>
     <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="58" t="s">
+      <c r="M37" s="55" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="59"/>
+      <c r="M38" s="56"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1868,36 +1878,14 @@
       </c>
     </row>
     <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="77"/>
+      <c r="M39" s="57"/>
     </row>
     <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="77"/>
+      <c r="M40" s="57"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1906,6 +1894,28 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -315,12 +315,6 @@
     <t>Consultation With Sir Sean/Sir Quesada</t>
   </si>
   <si>
-    <t>Event table (Existing)</t>
-  </si>
-  <si>
-    <t>UML Diagrams</t>
-  </si>
-  <si>
     <t>Wiki (Objective, Description)</t>
   </si>
   <si>
@@ -330,14 +324,24 @@
     <t>Wiki (Scope and Limitation)</t>
   </si>
   <si>
-    <t>Wiki ()</t>
+    <t>Event table (Existing) Stud &amp; Ad</t>
+  </si>
+  <si>
+    <t>UML Diagrams (Class, communication, timing)</t>
+  </si>
+  <si>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Use Case Diagram (Existing) Stud &amp; Ad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="mmm\-d"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
@@ -650,7 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -738,13 +742,60 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -757,53 +808,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1099,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1119,33 +1126,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="G1" s="69" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1157,11 +1164,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1171,11 +1178,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="68"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1187,9 +1194,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="75"/>
-      <c r="G3" s="55" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="66"/>
+      <c r="G3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1199,7 +1206,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="58" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1226,7 +1233,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1241,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="56"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1259,14 +1266,17 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="58" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="M5" s="55" t="s">
+      <c r="K5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="58" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1293,12 +1303,15 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="30"/>
-      <c r="M6" s="56"/>
+      <c r="K6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="59"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1334,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1331,7 +1344,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1354,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="63"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1375,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="63"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1379,14 +1392,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="58" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1404,12 +1417,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="56"/>
+      <c r="M10" s="59"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1427,14 +1440,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="64" t="s">
+      <c r="G11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="64" t="s">
+      <c r="M11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1450,12 +1463,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="65"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1469,14 +1482,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="73" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="58" t="s">
+      <c r="M13" s="73" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1492,12 +1505,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="59"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="74"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1513,14 +1526,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="73" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="73" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1533,17 +1546,17 @@
         <v>46539</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="59"/>
+      <c r="M16" s="74"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1561,14 +1574,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="75" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="75" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1586,12 +1599,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="61"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1613,14 +1626,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="58" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="58" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1641,12 +1654,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="56"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1665,14 +1678,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="58" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="55" t="s">
+      <c r="M21" s="58" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1696,12 +1709,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="56"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1725,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -1723,14 +1736,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="58" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="58" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1741,19 +1754,19 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="30"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="56"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1766,6 +1779,9 @@
       <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D25" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M25" s="49" t="s">
         <v>39</v>
       </c>
@@ -1775,7 +1791,16 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="28"/>
@@ -1784,10 +1809,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
+      <c r="B27" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>40</v>
@@ -1797,6 +1828,12 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M28" s="52"/>
       <c r="N28" s="28"/>
       <c r="O28" s="30"/>
@@ -1863,14 +1900,14 @@
       </c>
     </row>
     <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="55" t="s">
+      <c r="M37" s="58" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="56"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1878,14 +1915,36 @@
       </c>
     </row>
     <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="57"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="57"/>
+      <c r="M40" s="77"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1894,28 +1953,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-3\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEDULE" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="55">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -327,13 +327,22 @@
     <t>Event table (Existing) Stud &amp; Ad</t>
   </si>
   <si>
-    <t>UML Diagrams (Class, communication, timing)</t>
-  </si>
-  <si>
     <t>Wiki</t>
   </si>
   <si>
     <t>Use Case Diagram (Existing) Stud &amp; Ad</t>
+  </si>
+  <si>
+    <t>2. PSR w3</t>
+  </si>
+  <si>
+    <t>2. Communication</t>
+  </si>
+  <si>
+    <t>2. UML Diagrams (Class, communication, timing)</t>
+  </si>
+  <si>
+    <t>2. State Machine</t>
   </si>
 </sst>
 </file>
@@ -341,8 +350,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -654,7 +663,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -740,8 +749,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,12 +794,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,34 +821,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1106,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1126,33 +1136,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="G1" s="60" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="G1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="75" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1164,11 +1174,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1178,11 +1188,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="69"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1194,9 +1204,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="66"/>
-      <c r="G3" s="58" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="G3" s="56" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1206,7 +1216,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="56" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1233,7 +1243,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1251,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="59"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1276,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1276,7 +1286,7 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="56" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1303,7 +1313,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="59"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1321,7 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="59"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1344,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="63" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1344,7 +1354,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="63" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1367,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1385,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1392,14 +1402,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="56" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="56" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1417,12 +1427,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="59"/>
+      <c r="M10" s="57"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1440,14 +1450,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="65" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="65" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1463,12 +1473,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="72"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1482,14 +1492,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="59" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="73" t="s">
+      <c r="M13" s="59" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1505,12 +1515,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="74"/>
+      <c r="M14" s="60"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1526,14 +1536,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="73" t="s">
+      <c r="M15" s="59" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1551,12 +1561,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="74"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="74"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1574,14 +1584,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="61" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="61" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1599,12 +1609,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="76"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="76"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1626,14 +1636,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="56" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="56" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1654,12 +1664,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="59"/>
+      <c r="M20" s="57"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1678,14 +1688,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="56" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="58" t="s">
+      <c r="M21" s="56" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1709,12 +1719,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="59"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="59"/>
+      <c r="M22" s="57"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1736,14 +1746,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1752,36 +1762,35 @@
       <c r="O23" s="26"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="27"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="G24" s="59"/>
+      <c r="G24" s="57"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="59"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+      <c r="A25" s="15">
         <v>37073</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="18" t="s">
         <v>5</v>
       </c>
+      <c r="E25" s="26"/>
       <c r="M25" s="49" t="s">
         <v>39</v>
       </c>
@@ -1811,8 +1820,8 @@
     </row>
     <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="78" t="s">
-        <v>49</v>
+      <c r="B27" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>5</v>
@@ -1829,7 +1838,7 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>4</v>
@@ -1837,9 +1846,20 @@
       <c r="M28" s="52"/>
       <c r="N28" s="28"/>
       <c r="O28" s="30"/>
-      <c r="P28" s="38"/>
+      <c r="P28" s="38" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="30"/>
       <c r="M29" s="49" t="s">
         <v>41</v>
       </c>
@@ -1847,6 +1867,15 @@
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="79">
+        <v>42553</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M30" s="50"/>
       <c r="N30" s="28"/>
       <c r="O30" s="30"/>
@@ -1855,6 +1884,15 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="79">
+        <v>42554</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="M31" s="49" t="s">
         <v>42</v>
       </c>
@@ -1900,14 +1938,14 @@
       </c>
     </row>
     <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="58" t="s">
+      <c r="M37" s="56" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="59"/>
+      <c r="M38" s="57"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1915,36 +1953,14 @@
       </c>
     </row>
     <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="77"/>
+      <c r="M39" s="58"/>
     </row>
     <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="77"/>
+      <c r="M40" s="58"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1953,6 +1969,28 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Videos\Project---LSC-2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="56">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>2. State Machine</t>
+  </si>
+  <si>
+    <t>Package Diagram</t>
   </si>
 </sst>
 </file>
@@ -754,13 +757,61 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -773,55 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1117,7 +1120,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1136,33 +1139,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="G1" s="70" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="G1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1174,11 +1177,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="69"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1188,11 +1191,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1204,9 +1207,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="76"/>
-      <c r="G3" s="56" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="68"/>
+      <c r="G3" s="60" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1216,7 +1219,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="60" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1243,7 +1246,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1254,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="61"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1279,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="60" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1286,7 +1289,7 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="60" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1313,7 +1316,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="57"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1324,7 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1347,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="71" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1354,7 +1357,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="71" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1377,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="64"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1388,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="64"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1402,14 +1405,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="60" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="56" t="s">
+      <c r="M9" s="60" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1427,12 +1430,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="57"/>
+      <c r="M10" s="61"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1450,14 +1453,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="73" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="73" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1473,12 +1476,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="66"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1492,14 +1495,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="75" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="75" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1515,12 +1518,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="60"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="60"/>
+      <c r="M14" s="76"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1536,14 +1539,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="75" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="75" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1561,12 +1564,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="60"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1584,14 +1587,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="77" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="61" t="s">
+      <c r="M17" s="77" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1609,12 +1612,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="62"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1636,14 +1639,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="60" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="60" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1664,12 +1667,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="57"/>
+      <c r="M20" s="61"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1688,14 +1691,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="60" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="56" t="s">
+      <c r="M21" s="60" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1719,12 +1722,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="57"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="57"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1746,14 +1749,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="60" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="56" t="s">
+      <c r="M23" s="60" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1768,12 +1771,12 @@
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="57"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="57"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1867,7 +1870,7 @@
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="79">
+      <c r="A30" s="56">
         <v>42553</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1884,7 +1887,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="79">
+      <c r="A31" s="56">
         <v>42554</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1900,6 +1903,12 @@
       <c r="O31" s="26"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M32" s="50"/>
       <c r="N32" s="28"/>
       <c r="O32" s="30"/>
@@ -1907,14 +1916,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="M33" s="49" t="s">
         <v>41</v>
       </c>
       <c r="N33" s="29"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M34" s="50"/>
       <c r="N34" s="28"/>
       <c r="O34" s="30"/>
@@ -1922,14 +1943,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M35" s="49" t="s">
         <v>42</v>
       </c>
       <c r="N35" s="29"/>
       <c r="O35" s="26"/>
     </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M36" s="50"/>
       <c r="N36" s="28"/>
       <c r="O36" s="30"/>
@@ -1937,30 +1958,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="56" t="s">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M37" s="60" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
-    <row r="38" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="57"/>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M38" s="61"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="58"/>
-    </row>
-    <row r="40" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="58"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M39" s="79"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M40" s="79"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -1969,28 +2012,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Videos\Project---LSC-2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project---LSC-2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Package Diagram</t>
+  </si>
+  <si>
+    <t>2. Object Diagram</t>
+  </si>
+  <si>
+    <t>Sample GUI</t>
   </si>
 </sst>
 </file>
@@ -353,8 +359,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mmm\-d"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="mmm\-d"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -752,12 +758,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,12 +804,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,31 +831,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1120,7 +1126,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1139,33 +1145,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="G1" s="62" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="G1" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="76" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1177,11 +1183,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1191,11 +1197,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="59"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1207,9 +1213,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="68"/>
-      <c r="G3" s="60" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="G3" s="57" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1219,7 +1225,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="57" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1246,7 +1252,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1254,7 +1260,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="61"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1285,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="57" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1289,7 +1295,7 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="57" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1316,7 +1322,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1330,7 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="61"/>
+      <c r="M6" s="58"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1347,7 +1353,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="64" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1357,7 +1363,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="71" t="s">
+      <c r="M7" s="64" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1380,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="72"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1394,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="72"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1405,14 +1411,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="60" t="s">
+      <c r="M9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1430,12 +1436,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1453,14 +1459,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="66" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="73" t="s">
+      <c r="M11" s="66" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1476,12 +1482,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="74"/>
+      <c r="M12" s="67"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1495,14 +1501,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="60" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="75" t="s">
+      <c r="M13" s="60" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1518,12 +1524,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="76"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="76"/>
+      <c r="M14" s="61"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1539,14 +1545,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="60" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="75" t="s">
+      <c r="M15" s="60" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1564,12 +1570,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="76"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="76"/>
+      <c r="M16" s="61"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1587,14 +1593,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="62" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="77" t="s">
+      <c r="M17" s="62" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1612,12 +1618,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="78"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1639,14 +1645,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="57" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="57" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1667,12 +1673,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="61"/>
+      <c r="M20" s="58"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1691,14 +1697,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="57" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="57" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1722,12 +1728,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="61"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="61"/>
+      <c r="M22" s="58"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1749,14 +1755,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="57" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="60" t="s">
+      <c r="M23" s="57" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1771,12 +1777,12 @@
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="61"/>
+      <c r="M24" s="58"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1924,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>4</v>
@@ -1944,6 +1950,12 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M35" s="49" t="s">
         <v>42</v>
       </c>
@@ -1959,14 +1971,14 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="57" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="61"/>
+      <c r="M38" s="58"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1974,36 +1986,14 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="79"/>
+      <c r="M39" s="59"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="79"/>
+      <c r="M40" s="59"/>
       <c r="P40" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -2012,6 +2002,28 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project---LSC-2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\Project---LSC-2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -352,6 +352,27 @@
   </si>
   <si>
     <t>Sample GUI</t>
+  </si>
+  <si>
+    <t>2. Class Diagram</t>
+  </si>
+  <si>
+    <t>Component Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Composite Structure</t>
+  </si>
+  <si>
+    <t>Interaction Overview</t>
+  </si>
+  <si>
+    <t>State Machine Diagram</t>
   </si>
 </sst>
 </file>
@@ -672,7 +693,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -765,12 +786,23 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1123,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1145,33 +1177,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
-      <c r="G1" s="71" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="G1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1183,11 +1215,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1197,11 +1229,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1213,9 +1245,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="77"/>
-      <c r="G3" s="57" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="82"/>
+      <c r="G3" s="63" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1225,7 +1257,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="63" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1252,7 +1284,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1260,7 +1292,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="58"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1317,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="63" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1295,7 +1327,7 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="63" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1322,7 +1354,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="58"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1362,7 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="58"/>
+      <c r="M6" s="64"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +1385,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1363,7 +1395,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1386,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="65"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +1426,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="65"/>
+      <c r="M8" s="70"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1411,14 +1443,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="63" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="57" t="s">
+      <c r="M9" s="63" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1436,12 +1468,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="64"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="64"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1459,14 +1491,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="71" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1482,12 +1514,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="67"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1501,14 +1533,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="65" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="65" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1524,12 +1556,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="61"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1545,14 +1577,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="65" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="65" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1570,12 +1602,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="61"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1593,14 +1625,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="67" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="67" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1618,12 +1650,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="63"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1645,14 +1677,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="63" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="57" t="s">
+      <c r="M19" s="63" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1673,12 +1705,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="58"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1697,14 +1729,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="63" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="63" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1728,12 +1760,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="58"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="58"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1755,14 +1787,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="63" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="63" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1777,12 +1809,12 @@
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="58"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="58"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1876,13 +1908,15 @@
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="56">
+      <c r="A30" s="60">
         <v>42553</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="M30" s="50"/>
@@ -1957,12 +1991,18 @@
         <v>5</v>
       </c>
       <c r="M35" s="49" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="N35" s="29"/>
       <c r="O35" s="26"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M36" s="50"/>
       <c r="N36" s="28"/>
       <c r="O36" s="30"/>
@@ -1971,14 +2011,15 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="57" t="s">
+      <c r="M37" s="63" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
+      <c r="P37" s="38"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="58"/>
+      <c r="M38" s="64"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -1986,14 +2027,80 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="59"/>
+      <c r="M39" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="29"/>
+      <c r="O39" s="26"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="59"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="30"/>
       <c r="P40" s="38"/>
     </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M41" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="29"/>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M42" s="59"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="8"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M43" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="29"/>
+      <c r="O43" s="26"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M44" s="58"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="30"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M45" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="9"/>
+      <c r="O45" s="8"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M46" s="59"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="8"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M47" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47" s="29"/>
+      <c r="O47" s="26"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M48" s="58"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="30"/>
+    </row>
+    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M49" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="29"/>
+      <c r="O49" s="26"/>
+    </row>
+    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M50" s="58"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="29">
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -2018,7 +2125,6 @@
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M39:M40"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>State Machine Diagram</t>
+  </si>
+  <si>
+    <t>3. Communication Diagram</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -784,7 +787,6 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,12 +799,60 @@
     <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -815,54 +865,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="2" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1157,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1177,33 +1181,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71"/>
+      <c r="G1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1215,11 +1219,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1229,11 +1233,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1245,9 +1249,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="84"/>
-      <c r="B3" s="82"/>
-      <c r="G3" s="63" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="73"/>
+      <c r="G3" s="65" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1257,7 +1261,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="65" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1284,7 +1288,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1296,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="64"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1321,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="65" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1327,7 +1331,7 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="65" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1354,7 +1358,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1366,7 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="64"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1389,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="76" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1395,7 +1399,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="76" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1418,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1430,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="70"/>
+      <c r="M8" s="77"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1443,14 +1447,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="65" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1468,12 +1472,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="64"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1491,14 +1495,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="78" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="78" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1514,12 +1518,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="72"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1533,14 +1537,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="80" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="80" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1556,12 +1560,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="66"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1577,14 +1581,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="80" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="80" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1602,12 +1606,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="66"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="66"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1625,14 +1629,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="82" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="67" t="s">
+      <c r="M17" s="82" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1650,12 +1654,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="68"/>
+      <c r="M18" s="83"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1677,14 +1681,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="G19" s="65" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="63" t="s">
+      <c r="M19" s="65" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1705,12 +1709,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="64"/>
+      <c r="M20" s="66"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1729,14 +1733,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="65" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="63" t="s">
+      <c r="M21" s="65" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1760,12 +1764,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="64"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="64"/>
+      <c r="M22" s="66"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1787,14 +1791,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="G23" s="65" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="63" t="s">
+      <c r="M23" s="65" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1809,12 +1813,12 @@
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="64"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="64"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1908,14 +1912,14 @@
       <c r="O29" s="26"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
+      <c r="A30" s="59">
         <v>42553</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="12" t="s">
         <v>6</v>
       </c>
@@ -1927,15 +1931,17 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="56">
+      <c r="A31" s="85">
         <v>42554</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="26"/>
       <c r="M31" s="49" t="s">
         <v>42</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
@@ -1969,7 +1975,7 @@
       <c r="N33" s="29"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>55</v>
       </c>
@@ -1983,7 +1989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
@@ -1996,11 +2002,14 @@
       <c r="N35" s="29"/>
       <c r="O35" s="26"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="24" t="s">
         <v>6</v>
       </c>
       <c r="M36" s="50"/>
@@ -2010,97 +2019,143 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M37" s="63" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="84">
+        <v>38534</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="65" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
       <c r="O37" s="26"/>
       <c r="P37" s="38"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M38" s="64"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" s="66"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
-      <c r="P38" s="38" t="s">
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M39" s="57" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" s="56" t="s">
         <v>59</v>
       </c>
       <c r="N39" s="29"/>
       <c r="O39" s="26"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M40" s="58"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M40" s="57"/>
       <c r="N40" s="28"/>
       <c r="O40" s="30"/>
       <c r="P40" s="38"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M41" s="57" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M41" s="56" t="s">
         <v>62</v>
       </c>
       <c r="N41" s="29"/>
       <c r="O41" s="26"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M42" s="59"/>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M42" s="58"/>
       <c r="N42" s="9"/>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M43" s="57" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M43" s="56" t="s">
         <v>60</v>
       </c>
       <c r="N43" s="29"/>
       <c r="O43" s="26"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M44" s="58"/>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M44" s="57"/>
       <c r="N44" s="28"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M45" s="59" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M45" s="58" t="s">
         <v>63</v>
       </c>
       <c r="N45" s="9"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M46" s="59"/>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M46" s="58"/>
       <c r="N46" s="9"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M47" s="57" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M47" s="56" t="s">
         <v>61</v>
       </c>
       <c r="N47" s="29"/>
       <c r="O47" s="26"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M48" s="58"/>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M48" s="57"/>
       <c r="N48" s="28"/>
       <c r="O48" s="30"/>
     </row>
-    <row r="49" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M49" s="57" t="s">
+    <row r="49" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M49" s="56" t="s">
         <v>55</v>
       </c>
       <c r="N49" s="29"/>
       <c r="O49" s="26"/>
     </row>
-    <row r="50" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M50" s="58"/>
+    <row r="50" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M50" s="57"/>
       <c r="N50" s="28"/>
       <c r="O50" s="30"/>
+      <c r="P50" s="38" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -2109,27 +2164,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2065,6 +2065,12 @@
       <c r="O39" s="26"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M40" s="57"/>
       <c r="N40" s="28"/>
       <c r="O40" s="30"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="66">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -799,6 +799,9 @@
     <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,8 +868,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1161,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1181,33 +1182,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="71"/>
-      <c r="G1" s="67" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="G1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1219,11 +1220,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1233,11 +1234,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="64"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1249,9 +1250,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="73"/>
-      <c r="G3" s="65" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="G3" s="68" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1261,7 +1262,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="68" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1288,7 +1289,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="66"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1297,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="66"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1322,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="68" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1331,7 +1332,7 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="68" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1358,7 +1359,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="66"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1367,7 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="66"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1390,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="79" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1399,7 +1400,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="76" t="s">
+      <c r="M7" s="79" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1422,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="77"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1430,7 +1431,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="77"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1447,14 +1448,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="68" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1472,12 +1473,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="66"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1495,14 +1496,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="81" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="78" t="s">
+      <c r="M11" s="81" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1518,12 +1519,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="79"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="79"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1537,14 +1538,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="83" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="80" t="s">
+      <c r="M13" s="83" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1560,12 +1561,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="81"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1581,14 +1582,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="83" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="80" t="s">
+      <c r="M15" s="83" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1606,12 +1607,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="81"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1629,14 +1630,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="85" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="82" t="s">
+      <c r="M17" s="85" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1654,12 +1655,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="83"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="83"/>
+      <c r="M18" s="86"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1681,14 +1682,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="68" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="65" t="s">
+      <c r="M19" s="68" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1709,12 +1710,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="66"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="66"/>
+      <c r="M20" s="69"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1733,14 +1734,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="68" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="65" t="s">
+      <c r="M21" s="68" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1764,12 +1765,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="66"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="66"/>
+      <c r="M22" s="69"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1791,14 +1792,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="68" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="65" t="s">
+      <c r="M23" s="68" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1813,12 +1814,12 @@
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="66"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="66"/>
+      <c r="M24" s="69"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +1932,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="85">
+      <c r="A31" s="63">
         <v>42554</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -2020,16 +2021,18 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="84">
+      <c r="A37" s="64">
         <v>38534</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="65" t="s">
+      <c r="M37" s="68" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
@@ -2043,7 +2046,7 @@
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="66"/>
+      <c r="M38" s="69"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38"/>
@@ -2065,10 +2068,13 @@
       <c r="O39" s="26"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="47"/>
+      <c r="B40" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="24" t="s">
         <v>6</v>
       </c>
       <c r="M40" s="57"/>
@@ -2077,6 +2083,15 @@
       <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="62">
+        <v>38899</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M41" s="56" t="s">
         <v>62</v>
       </c>
@@ -2084,11 +2099,29 @@
       <c r="O41" s="26"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M42" s="58"/>
       <c r="N42" s="9"/>
       <c r="O42" s="8"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M43" s="56" t="s">
         <v>60</v>
       </c>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\3RD YEAR\3rd year 1st term\MSYADD1\Project---LSC-2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Videos\Project---LSC-2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="68">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>3. Communication Diagram</t>
+  </si>
+  <si>
+    <t>Deployment Diagram</t>
+  </si>
+  <si>
+    <t>July 7`</t>
   </si>
 </sst>
 </file>
@@ -383,8 +389,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="mmm\-d"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -782,9 +788,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -799,9 +805,38 @@
     <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="17" fontId="2" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,12 +846,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,30 +873,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1182,33 +1188,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="G1" s="70" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81"/>
+      <c r="G1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="82" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1220,11 +1226,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1234,11 +1240,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1250,9 +1256,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="76"/>
-      <c r="G3" s="68" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="83"/>
+      <c r="G3" s="64" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1262,14 +1268,14 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="64" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="O3" s="26"/>
-      <c r="Q3" s="38" t="s">
+      <c r="P3" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1289,7 +1295,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1297,12 +1303,12 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="69"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="30"/>
-      <c r="Q4" s="38" t="s">
+      <c r="P4" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1322,7 +1328,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="64" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1332,14 +1338,14 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="64" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="26"/>
-      <c r="Q5" s="38" t="s">
+      <c r="P5" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1359,7 +1365,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1367,12 +1373,12 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="69"/>
+      <c r="M6" s="65"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="30"/>
-      <c r="Q6" s="38" t="s">
+      <c r="P6" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1390,7 +1396,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="70" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1400,7 +1406,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="79" t="s">
+      <c r="M7" s="70" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1423,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="80"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1431,7 +1437,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="80"/>
+      <c r="M8" s="71"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1448,14 +1454,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="64" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="64" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1473,12 +1479,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="69"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="69"/>
+      <c r="M10" s="65"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1496,14 +1502,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="81" t="s">
+      <c r="G11" s="72" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="81" t="s">
+      <c r="M11" s="72" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1519,12 +1525,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="82"/>
+      <c r="G12" s="73"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="82"/>
+      <c r="M12" s="73"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1538,14 +1544,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="66" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="83" t="s">
+      <c r="M13" s="66" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1561,12 +1567,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="84"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="84"/>
+      <c r="M14" s="67"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1582,14 +1588,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="66" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="83" t="s">
+      <c r="M15" s="66" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1607,18 +1613,18 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="84"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="84"/>
+      <c r="M16" s="67"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <v>42550</v>
       </c>
@@ -1630,14 +1636,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="68" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="85" t="s">
+      <c r="M17" s="68" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1645,7 +1651,7 @@
       </c>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="21" t="s">
         <v>39</v>
@@ -1655,18 +1661,18 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="86"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>42551</v>
       </c>
@@ -1682,14 +1688,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="64" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="68" t="s">
+      <c r="M19" s="64" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1697,7 +1703,7 @@
       </c>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
@@ -1710,18 +1716,21 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="69"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="69"/>
+      <c r="M20" s="65"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O20" s="30"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
@@ -1734,25 +1743,25 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="64" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="64" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="O21" s="26"/>
-      <c r="Q21" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P21" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1765,21 +1774,21 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="69"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O22" s="30"/>
-      <c r="Q22" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P22" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1792,14 +1801,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="64" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="68" t="s">
+      <c r="M23" s="64" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1807,25 +1816,25 @@
       </c>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="69"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="69"/>
+      <c r="M24" s="65"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>37073</v>
       </c>
@@ -1843,7 +1852,7 @@
       <c r="N25" s="29"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>48</v>
@@ -1864,7 +1873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="55" t="s">
         <v>53</v>
@@ -1881,7 +1890,7 @@
       <c r="N27" s="29"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>50</v>
@@ -1896,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="21" t="s">
         <v>51</v>
@@ -1912,7 +1921,7 @@
       <c r="N29" s="29"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="59">
         <v>42553</v>
       </c>
@@ -1931,8 +1940,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="62">
         <v>42554</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -1949,7 +1958,7 @@
       <c r="N31" s="29"/>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +2030,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
+      <c r="A37" s="63">
         <v>38534</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -2032,7 +2041,7 @@
       <c r="E37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="68" t="s">
+      <c r="M37" s="64" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
@@ -2046,10 +2055,12 @@
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="69"/>
+      <c r="M38" s="65"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
-      <c r="P38" s="38"/>
+      <c r="P38" s="38" t="s">
+        <v>27</v>
+      </c>
       <c r="Q38" s="38" t="s">
         <v>27</v>
       </c>
@@ -2083,15 +2094,17 @@
       <c r="P40" s="38"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
+      <c r="A41" s="63">
         <v>38899</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="26"/>
       <c r="M41" s="56" t="s">
         <v>62</v>
       </c>
@@ -2129,11 +2142,26 @@
       <c r="O43" s="26"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="M44" s="57"/>
       <c r="N44" s="28"/>
       <c r="O44" s="30"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="47"/>
+      <c r="B45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="30"/>
       <c r="M45" s="58" t="s">
         <v>63</v>
       </c>
@@ -2141,6 +2169,21 @@
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="M46" s="58"/>
       <c r="N46" s="9"/>
       <c r="O46" s="8"/>
@@ -2174,27 +2217,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -2203,6 +2225,27 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="76">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -382,6 +382,30 @@
   </si>
   <si>
     <t>July 7`</t>
+  </si>
+  <si>
+    <t>3. Package Diagram</t>
+  </si>
+  <si>
+    <t>3. Timing Diagram</t>
+  </si>
+  <si>
+    <t>Use Case FD Existing</t>
+  </si>
+  <si>
+    <t>Event table existing</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>update event table (propose)</t>
+  </si>
+  <si>
+    <t>Draft for deployment diagram</t>
+  </si>
+  <si>
+    <t>Draft for class diagram</t>
   </si>
 </sst>
 </file>
@@ -807,12 +831,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -825,55 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1166,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1188,33 +1212,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="G1" s="77" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="74"/>
+      <c r="G1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="75" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -1226,11 +1250,11 @@
       <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
@@ -1240,11 +1264,11 @@
       <c r="L2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="74" t="s">
+      <c r="M2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="39" t="s">
         <v>30</v>
       </c>
@@ -1256,9 +1280,9 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
-      <c r="B3" s="83"/>
-      <c r="G3" s="64" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="G3" s="68" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="31" t="s">
@@ -1268,7 +1292,7 @@
       <c r="K3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="68" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="31" t="s">
@@ -1295,7 +1319,7 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1327,7 @@
       <c r="K4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="65"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="32" t="s">
         <v>16</v>
       </c>
@@ -1328,7 +1352,7 @@
       <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="68" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="31" t="s">
@@ -1338,7 +1362,7 @@
       <c r="K5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="68" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="31" t="s">
@@ -1365,7 +1389,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1373,7 +1397,7 @@
       <c r="K6" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="65"/>
+      <c r="M6" s="69"/>
       <c r="N6" s="32" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1420,7 @@
       <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="79" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="31" t="s">
@@ -1406,7 +1430,7 @@
       <c r="J7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="79" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="31" t="s">
@@ -1429,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="G8" s="71"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1461,7 @@
       <c r="J8" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="71"/>
+      <c r="M8" s="80"/>
       <c r="N8" s="32" t="s">
         <v>16</v>
       </c>
@@ -1454,14 +1478,14 @@
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="68" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="M9" s="64" t="s">
+      <c r="M9" s="68" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="31" t="s">
@@ -1479,12 +1503,12 @@
       <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="M10" s="65"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="32" t="s">
         <v>16</v>
       </c>
@@ -1502,14 +1526,14 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="26"/>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="81" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="M11" s="72" t="s">
+      <c r="M11" s="81" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="31" t="s">
@@ -1525,12 +1549,12 @@
       <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="73"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="30"/>
-      <c r="M12" s="73"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="32" t="s">
         <v>16</v>
       </c>
@@ -1544,14 +1568,14 @@
       <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="83" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="M13" s="66" t="s">
+      <c r="M13" s="83" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -1567,12 +1591,12 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="30"/>
-      <c r="M14" s="67"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1588,14 +1612,14 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="83" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="M15" s="66" t="s">
+      <c r="M15" s="83" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="31" t="s">
@@ -1613,12 +1637,12 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="67"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="M16" s="67"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="32" t="s">
         <v>16</v>
       </c>
@@ -1636,14 +1660,14 @@
         <v>5</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="85" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="M17" s="68" t="s">
+      <c r="M17" s="85" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -1661,12 +1685,12 @@
       <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="69"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="30"/>
-      <c r="M18" s="69"/>
+      <c r="M18" s="86"/>
       <c r="N18" s="32" t="s">
         <v>16</v>
       </c>
@@ -1688,14 +1712,14 @@
       <c r="E19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="68" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="M19" s="64" t="s">
+      <c r="M19" s="68" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -1716,12 +1740,12 @@
       <c r="E20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="30"/>
-      <c r="M20" s="65"/>
+      <c r="M20" s="69"/>
       <c r="N20" s="32" t="s">
         <v>16</v>
       </c>
@@ -1743,14 +1767,14 @@
       <c r="E21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="68" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="26"/>
-      <c r="M21" s="64" t="s">
+      <c r="M21" s="68" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -1774,12 +1798,12 @@
       <c r="E22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="30"/>
-      <c r="M22" s="65"/>
+      <c r="M22" s="69"/>
       <c r="N22" s="32" t="s">
         <v>16</v>
       </c>
@@ -1801,14 +1825,14 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="68" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="26"/>
-      <c r="M23" s="64" t="s">
+      <c r="M23" s="68" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -1823,12 +1847,12 @@
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="30"/>
-      <c r="M24" s="65"/>
+      <c r="M24" s="69"/>
       <c r="N24" s="32" t="s">
         <v>16</v>
       </c>
@@ -2041,7 +2065,7 @@
       <c r="E37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="64" t="s">
+      <c r="M37" s="68" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="29"/>
@@ -2050,12 +2074,12 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="65"/>
+      <c r="M38" s="69"/>
       <c r="N38" s="28"/>
       <c r="O38" s="30"/>
       <c r="P38" s="38" t="s">
@@ -2081,7 +2105,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="21" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
@@ -2169,7 +2193,7 @@
       <c r="O45" s="8"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="64" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2189,6 +2213,12 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="M47" s="56" t="s">
         <v>61</v>
       </c>
@@ -2196,18 +2226,39 @@
       <c r="O47" s="26"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="M48" s="57"/>
       <c r="N48" s="28"/>
       <c r="O48" s="30"/>
     </row>
-    <row r="49" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M49" s="56" t="s">
         <v>55</v>
       </c>
       <c r="N49" s="29"/>
       <c r="O49" s="26"/>
     </row>
-    <row r="50" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="M50" s="57"/>
       <c r="N50" s="28"/>
       <c r="O50" s="30"/>
@@ -2215,8 +2266,45 @@
         <v>27</v>
       </c>
     </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -2225,27 +2313,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="75">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -379,9 +379,6 @@
   </si>
   <si>
     <t>Deployment Diagram</t>
-  </si>
-  <si>
-    <t>July 7`</t>
   </si>
   <si>
     <t>3. Package Diagram</t>
@@ -412,11 +409,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="mmm\-d"/>
+    <numFmt numFmtId="168" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,14 +446,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
@@ -497,14 +487,6 @@
       <charset val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Tw Cen MT"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Tw Cen MT"/>
@@ -515,6 +497,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -726,41 +715,27 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -772,10 +747,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -787,18 +762,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,11 +801,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="2" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,25 +817,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,30 +868,26 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1192,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1201,8 +1191,8 @@
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="9" style="8"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="9" style="5"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="10" max="12" width="12.625" customWidth="1"/>
@@ -1212,261 +1202,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="G1" s="70" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="G1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="C2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="34" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="39" t="s">
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="76"/>
-      <c r="G3" s="68" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="G3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="K3" s="37" t="s">
+      <c r="I3" s="19"/>
+      <c r="K3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="38" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="7">
         <v>44713</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="50"/>
+      <c r="H4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="K4" s="37" t="s">
+      <c r="I4" s="16"/>
+      <c r="K4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="32" t="s">
+      <c r="M4" s="50"/>
+      <c r="N4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="38" t="s">
+      <c r="O4" s="16"/>
+      <c r="P4" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>45078</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="K5" s="37" t="s">
+      <c r="I5" s="13"/>
+      <c r="K5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="38" t="s">
+      <c r="O5" s="13"/>
+      <c r="P5" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="9">
         <v>45444</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="K6" s="37" t="s">
+      <c r="I6" s="16"/>
+      <c r="K6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="32" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="38" t="s">
+      <c r="O6" s="16"/>
+      <c r="P6" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="C7" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="37" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="79" t="s">
+      <c r="M7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="13"/>
+      <c r="P7" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="9">
         <v>45809</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="32" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="37" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="32" t="s">
+      <c r="M8" s="56"/>
+      <c r="N8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="38" t="s">
+      <c r="O8" s="16"/>
+      <c r="P8" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1475,810 +1468,870 @@
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="68" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="G9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="M9" s="68" t="s">
+      <c r="I9" s="13"/>
+      <c r="M9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="26"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="32" t="s">
+      <c r="G10" s="50"/>
+      <c r="H10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="32" t="s">
+      <c r="I10" s="16"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>46174</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="26"/>
-      <c r="G11" s="81" t="s">
+      <c r="C11" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="79"/>
+      <c r="G11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="M11" s="81" t="s">
+      <c r="I11" s="13"/>
+      <c r="M11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="26"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="32" t="s">
+      <c r="C12" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="32" t="s">
+      <c r="I12" s="16"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="30"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="M13" s="83" t="s">
+      <c r="I13" s="13"/>
+      <c r="M13" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="26"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="32" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="69"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="32" t="s">
+      <c r="I14" s="16"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="30"/>
-      <c r="G15" s="83" t="s">
+      <c r="C15" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="85"/>
+      <c r="G15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="M15" s="83" t="s">
+      <c r="I15" s="13"/>
+      <c r="M15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="26"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="39">
         <v>46539</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="32" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="32" t="s">
+      <c r="I16" s="16"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="30"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="53">
+      <c r="A17" s="38">
         <v>42550</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="G17" s="85" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="79"/>
+      <c r="G17" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="M17" s="85" t="s">
+      <c r="I17" s="13"/>
+      <c r="M17" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O17" s="26"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="24" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="62"/>
+      <c r="H18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="32" t="s">
+      <c r="I18" s="16"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="30"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="53">
+      <c r="A19" s="38">
         <v>42551</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="M19" s="68" t="s">
+      <c r="I19" s="13"/>
+      <c r="M19" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="26"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="C20" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="32" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="32" t="s">
+      <c r="I20" s="16"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="38" t="s">
+      <c r="O20" s="16"/>
+      <c r="P20" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="M21" s="68" t="s">
+      <c r="I21" s="13"/>
+      <c r="M21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="38" t="s">
+      <c r="O21" s="13"/>
+      <c r="P21" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C22" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="32" t="s">
+      <c r="G22" s="50"/>
+      <c r="H22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="32" t="s">
+      <c r="I22" s="16"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="38" t="s">
+      <c r="O22" s="16"/>
+      <c r="P22" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="C23" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="M23" s="68" t="s">
+      <c r="I23" s="13"/>
+      <c r="M23" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="26"/>
+      <c r="O23" s="13"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="32" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="69"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="32" t="s">
+      <c r="I24" s="16"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O24" s="30"/>
+      <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="9">
         <v>37073</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="M25" s="49" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="79"/>
+      <c r="M25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="26"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="50"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="38" t="s">
+      <c r="M26" s="35"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="51" t="s">
+      <c r="M27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="52"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="38" t="s">
+      <c r="C28" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="30"/>
-      <c r="M29" s="49" t="s">
+      <c r="C29" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="85"/>
+      <c r="M29" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="26"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="59">
+      <c r="A30" s="44">
         <v>42553</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="12" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="50"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="38" t="s">
+      <c r="M30" s="35"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="62">
+      <c r="A31" s="45">
         <v>42554</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="26"/>
-      <c r="M31" s="49" t="s">
+      <c r="C31" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="79"/>
+      <c r="M31" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="26"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="50"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="38" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="69"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="49" t="s">
+      <c r="C33" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="M33" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="26"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="50"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="38" t="s">
+      <c r="M34" s="35"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="49" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="69"/>
+      <c r="M35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N35" s="29"/>
-      <c r="O35" s="26"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="24" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="50"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="38" t="s">
+      <c r="M36" s="35"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="63">
+      <c r="A37" s="9">
         <v>38534</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="19" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="68" t="s">
+      <c r="M37" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="38"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M38" s="69"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="38" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M39" s="56" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="69"/>
+      <c r="M39" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="26"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="13"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="24" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M40" s="57"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="38"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="24"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="63">
+      <c r="A41" s="9">
         <v>38899</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="M41" s="56" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="79"/>
+      <c r="M41" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="N41" s="29"/>
-      <c r="O41" s="26"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="13"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="C42" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M42" s="58"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="8"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="56" t="s">
+      <c r="M43" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="26"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="13"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="57"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="30"/>
+      <c r="C44" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="16"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="30"/>
-      <c r="M45" s="58" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="85"/>
+      <c r="M45" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="9"/>
-      <c r="O45" s="8"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
-        <v>67</v>
+      <c r="A46" s="87">
+        <v>42558</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="C46" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M46" s="58"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="8"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
+      <c r="M47" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47" s="15"/>
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N47" s="29"/>
-      <c r="O47" s="26"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="57"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="30"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="69"/>
+      <c r="M49" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="15"/>
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="29"/>
-      <c r="O49" s="26"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="69"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M50" s="57"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="84" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Videos\Project---LSC-2\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Videos\Project---LSC-2\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="75">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -410,9 +410,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mmm\-d"/>
-    <numFmt numFmtId="168" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -786,9 +786,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -802,72 +802,6 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
@@ -887,7 +821,74 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -1180,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1202,33 +1203,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
+      <c r="G1" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="83" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1240,11 +1241,11 @@
       <c r="E2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="20" t="s">
         <v>30</v>
       </c>
@@ -1254,11 +1255,11 @@
       <c r="L2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="47"/>
-      <c r="O2" s="48"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
       <c r="P2" s="25" t="s">
         <v>30</v>
       </c>
@@ -1270,12 +1271,12 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="G3" s="49" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="65" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1285,7 +1286,7 @@
       <c r="K3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="65" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="17" t="s">
@@ -1303,16 +1304,16 @@
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1321,7 @@
       <c r="K4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1336,16 +1337,16 @@
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="65" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="17" t="s">
@@ -1355,7 +1356,7 @@
       <c r="K5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="65" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="17" t="s">
@@ -1373,16 +1374,16 @@
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="75" t="s">
+      <c r="D6" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="50"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="18" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +1391,7 @@
       <c r="K6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="50"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="18" t="s">
         <v>16</v>
       </c>
@@ -1404,16 +1405,16 @@
       <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="78" t="s">
+      <c r="D7" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="71" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -1423,7 +1424,7 @@
       <c r="J7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="71" t="s">
         <v>18</v>
       </c>
       <c r="N7" s="17" t="s">
@@ -1442,11 +1443,11 @@
         <v>33</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="79"/>
-      <c r="G8" s="56"/>
+      <c r="D8" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="57"/>
+      <c r="G8" s="72"/>
       <c r="H8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1454,7 +1455,7 @@
       <c r="J8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="56"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="18" t="s">
         <v>16</v>
       </c>
@@ -1469,18 +1470,18 @@
         <v>34</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="G9" s="49" t="s">
+      <c r="D9" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="G9" s="65" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="65" t="s">
         <v>19</v>
       </c>
       <c r="N9" s="17" t="s">
@@ -1494,16 +1495,16 @@
         <v>35</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="78" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="50"/>
+      <c r="G10" s="66"/>
       <c r="H10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="16"/>
-      <c r="M10" s="50"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="18" t="s">
         <v>16</v>
       </c>
@@ -1516,19 +1517,19 @@
       <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="79"/>
-      <c r="G11" s="57" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="57"/>
+      <c r="G11" s="73" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="13"/>
-      <c r="M11" s="57" t="s">
+      <c r="M11" s="73" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="17" t="s">
@@ -1541,17 +1542,17 @@
       <c r="B12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="G12" s="58"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="16"/>
-      <c r="M12" s="58"/>
+      <c r="M12" s="74"/>
       <c r="N12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1563,18 +1564,18 @@
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="84" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="67" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="13"/>
-      <c r="M13" s="59" t="s">
+      <c r="M13" s="67" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="17" t="s">
@@ -1588,16 +1589,16 @@
         <v>37</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="69"/>
-      <c r="G14" s="60"/>
+      <c r="D14" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="M14" s="60"/>
+      <c r="M14" s="68"/>
       <c r="N14" s="18" t="s">
         <v>16</v>
       </c>
@@ -1608,19 +1609,19 @@
       <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="85"/>
-      <c r="G15" s="59" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="63"/>
+      <c r="G15" s="67" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="67" t="s">
         <v>22</v>
       </c>
       <c r="N15" s="17" t="s">
@@ -1636,16 +1637,16 @@
         <v>45</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="69"/>
-      <c r="G16" s="60"/>
+      <c r="D16" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="47"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="M16" s="60"/>
+      <c r="M16" s="68"/>
       <c r="N16" s="18" t="s">
         <v>16</v>
       </c>
@@ -1659,18 +1660,18 @@
         <v>38</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="79"/>
-      <c r="G17" s="61" t="s">
+      <c r="D17" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="G17" s="69" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="M17" s="61" t="s">
+      <c r="M17" s="69" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="17" t="s">
@@ -1684,16 +1685,16 @@
         <v>39</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="78" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="70"/>
       <c r="H18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="16"/>
-      <c r="M18" s="62"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1706,23 +1707,23 @@
       <c r="B19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="75" t="s">
+      <c r="D19" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="65" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="13"/>
-      <c r="M19" s="49" t="s">
+      <c r="M19" s="65" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="17" t="s">
@@ -1735,21 +1736,21 @@
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="84" t="s">
+      <c r="D20" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="M20" s="50"/>
+      <c r="M20" s="66"/>
       <c r="N20" s="18" t="s">
         <v>16</v>
       </c>
@@ -1763,23 +1764,23 @@
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="65" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="13"/>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="65" t="s">
         <v>25</v>
       </c>
       <c r="N21" s="17" t="s">
@@ -1795,21 +1796,21 @@
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="84" t="s">
+      <c r="D22" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="16"/>
-      <c r="M22" s="50"/>
+      <c r="M22" s="66"/>
       <c r="N22" s="18" t="s">
         <v>16</v>
       </c>
@@ -1823,23 +1824,23 @@
       <c r="B23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="84" t="s">
+      <c r="D23" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="65" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="13"/>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="65" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="17" t="s">
@@ -1853,16 +1854,16 @@
         <v>47</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="G24" s="50"/>
+      <c r="D24" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="16"/>
-      <c r="M24" s="50"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="18" t="s">
         <v>16</v>
       </c>
@@ -1876,10 +1877,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="79"/>
+      <c r="D25" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="57"/>
       <c r="M25" s="34" t="s">
         <v>39</v>
       </c>
@@ -1891,13 +1892,13 @@
       <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="84" t="s">
+      <c r="D26" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="62" t="s">
         <v>6</v>
       </c>
       <c r="M26" s="35"/>
@@ -1913,10 +1914,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="84" t="s">
+      <c r="D27" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="62" t="s">
         <v>6</v>
       </c>
       <c r="M27" s="36" t="s">
@@ -1930,11 +1931,11 @@
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="M28" s="37"/>
       <c r="N28" s="14"/>
       <c r="O28" s="16"/>
@@ -1947,11 +1948,11 @@
       <c r="B29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="85"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="63"/>
       <c r="M29" s="34" t="s">
         <v>41</v>
       </c>
@@ -1966,8 +1967,8 @@
         <v>52</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="72" t="s">
+      <c r="D30" s="64"/>
+      <c r="E30" s="50" t="s">
         <v>6</v>
       </c>
       <c r="M30" s="35"/>
@@ -1984,11 +1985,11 @@
       <c r="B31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="79"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57"/>
       <c r="M31" s="34" t="s">
         <v>42</v>
       </c>
@@ -2001,10 +2002,10 @@
         <v>49</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="69"/>
+      <c r="D32" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="47"/>
       <c r="M32" s="35"/>
       <c r="N32" s="14"/>
       <c r="O32" s="16"/>
@@ -2017,11 +2018,11 @@
       <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
       <c r="M33" s="34" t="s">
         <v>41</v>
       </c>
@@ -2034,8 +2035,8 @@
         <v>55</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="84" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="62" t="s">
         <v>6</v>
       </c>
       <c r="M34" s="35"/>
@@ -2051,10 +2052,10 @@
         <v>57</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="69"/>
+      <c r="D35" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="47"/>
       <c r="M35" s="34" t="s">
         <v>64</v>
       </c>
@@ -2067,8 +2068,8 @@
         <v>58</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="78" t="s">
+      <c r="D36" s="59"/>
+      <c r="E36" s="56" t="s">
         <v>6</v>
       </c>
       <c r="M36" s="35"/>
@@ -2086,11 +2087,11 @@
         <v>65</v>
       </c>
       <c r="C37" s="10"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="75" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="49" t="s">
+      <c r="M37" s="65" t="s">
         <v>43</v>
       </c>
       <c r="N37" s="15"/>
@@ -2103,11 +2104,11 @@
         <v>68</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="69"/>
-      <c r="M38" s="50"/>
+      <c r="D38" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="47"/>
+      <c r="M38" s="66"/>
       <c r="N38" s="14"/>
       <c r="O38" s="16"/>
       <c r="P38" s="24" t="s">
@@ -2121,10 +2122,10 @@
         <v>57</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="69"/>
+      <c r="D39" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="47"/>
       <c r="M39" s="41" t="s">
         <v>59</v>
       </c>
@@ -2137,8 +2138,8 @@
         <v>67</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="78" t="s">
+      <c r="D40" s="59"/>
+      <c r="E40" s="56" t="s">
         <v>6</v>
       </c>
       <c r="M40" s="42"/>
@@ -2154,10 +2155,10 @@
         <v>59</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="74" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="79"/>
+      <c r="D41" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="57"/>
       <c r="M41" s="41" t="s">
         <v>62</v>
       </c>
@@ -2169,13 +2170,13 @@
       <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="84" t="s">
+      <c r="D42" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="62" t="s">
         <v>6</v>
       </c>
       <c r="M42" s="43"/>
@@ -2188,8 +2189,8 @@
         <v>55</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="84" t="s">
+      <c r="D43" s="46"/>
+      <c r="E43" s="62" t="s">
         <v>6</v>
       </c>
       <c r="M43" s="41" t="s">
@@ -2203,11 +2204,11 @@
       <c r="B44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="69"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
       <c r="M44" s="42"/>
       <c r="N44" s="14"/>
       <c r="O44" s="16"/>
@@ -2218,10 +2219,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="12"/>
-      <c r="D45" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="85"/>
+      <c r="D45" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="63"/>
       <c r="M45" s="43" t="s">
         <v>63</v>
       </c>
@@ -2229,19 +2230,19 @@
       <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="87">
-        <v>42558</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="88">
+        <v>39264</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="84" t="s">
+      <c r="D46" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="53" t="s">
         <v>6</v>
       </c>
       <c r="M46" s="43"/>
@@ -2253,11 +2254,11 @@
       <c r="B47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="69"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
       <c r="M47" s="41" t="s">
         <v>61</v>
       </c>
@@ -2269,11 +2270,11 @@
       <c r="B48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="69"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
       <c r="M48" s="42"/>
       <c r="N48" s="14"/>
       <c r="O48" s="16"/>
@@ -2283,13 +2284,13 @@
       <c r="B49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="69"/>
+      <c r="D49" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="47"/>
       <c r="M49" s="41" t="s">
         <v>55</v>
       </c>
@@ -2302,10 +2303,10 @@
         <v>72</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="69"/>
+      <c r="D50" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="47"/>
       <c r="M50" s="42"/>
       <c r="N50" s="14"/>
       <c r="O50" s="16"/>
@@ -2318,46 +2319,52 @@
       <c r="B51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="69"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="84" t="s">
+      <c r="C52" s="12"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="56" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="87">
+        <v>39630</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="58" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="G1:R1"/>
@@ -2366,6 +2373,27 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/SCHEDULE t.xlsx
+++ b/Documentation/SCHEDULE t.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="SCHEDULE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>SCHEDULE</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Communication</t>
+  </si>
+  <si>
+    <t>Composite Diagram</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
@@ -490,6 +493,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,17 +525,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="2" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="4" builtinId="50"/>
@@ -814,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -836,57 +843,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="C2" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="3"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="G3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="G3" s="45"/>
+      <c r="M3" s="45"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -904,8 +911,8 @@
       <c r="E4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="M4" s="51"/>
+      <c r="G4" s="45"/>
+      <c r="M4" s="45"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -923,8 +930,8 @@
       <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="G5" s="45"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -942,8 +949,8 @@
       <c r="E6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="M6" s="51"/>
+      <c r="G6" s="45"/>
+      <c r="M6" s="45"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
@@ -959,8 +966,8 @@
       <c r="E7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="M7" s="51"/>
+      <c r="G7" s="45"/>
+      <c r="M7" s="45"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -974,8 +981,8 @@
         <v>5</v>
       </c>
       <c r="E8" s="32"/>
-      <c r="G8" s="51"/>
-      <c r="M8" s="51"/>
+      <c r="G8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -987,8 +994,8 @@
         <v>5</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="G9" s="51"/>
-      <c r="M9" s="51"/>
+      <c r="G9" s="45"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -1000,8 +1007,8 @@
       <c r="E10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="M10" s="51"/>
+      <c r="G10" s="45"/>
+      <c r="M10" s="45"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -1015,8 +1022,8 @@
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="32"/>
-      <c r="G11" s="51"/>
-      <c r="M11" s="51"/>
+      <c r="G11" s="45"/>
+      <c r="M11" s="45"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1028,8 +1035,8 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="22"/>
-      <c r="G12" s="51"/>
-      <c r="M12" s="51"/>
+      <c r="G12" s="45"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1041,8 +1048,8 @@
       <c r="E13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="G13" s="45"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1054,8 +1061,8 @@
         <v>5</v>
       </c>
       <c r="E14" s="22"/>
-      <c r="G14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="G14" s="45"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1067,8 +1074,8 @@
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="38"/>
-      <c r="G15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="G15" s="45"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -1082,8 +1089,8 @@
         <v>5</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="G16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="G16" s="45"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -1097,8 +1104,8 @@
         <v>5</v>
       </c>
       <c r="E17" s="32"/>
-      <c r="G17" s="51"/>
-      <c r="M17" s="51"/>
+      <c r="G17" s="45"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1110,8 +1117,8 @@
       <c r="E18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="M18" s="51"/>
+      <c r="G18" s="45"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -1129,8 +1136,8 @@
       <c r="E19" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="51"/>
-      <c r="M19" s="51"/>
+      <c r="G19" s="45"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1146,8 +1153,8 @@
       <c r="E20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="G20" s="45"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -1163,8 +1170,8 @@
       <c r="E21" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="G21" s="45"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1180,8 +1187,8 @@
       <c r="E22" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="G22" s="45"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1197,8 +1204,8 @@
       <c r="E23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="G23" s="45"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1210,8 +1217,8 @@
         <v>5</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="G24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="G24" s="45"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1296,7 +1303,7 @@
       <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="35"/>
@@ -1318,7 +1325,7 @@
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="21"/>
@@ -1369,7 +1376,7 @@
       <c r="E37" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M37" s="51"/>
+      <c r="M37" s="45"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -1381,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="22"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="45"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1423,7 +1430,7 @@
       <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -1449,7 +1456,7 @@
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="21"/>
@@ -1473,7 +1480,7 @@
       <c r="B46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="27" t="s">
@@ -1488,7 +1495,7 @@
       <c r="B47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="21"/>
@@ -1499,7 +1506,7 @@
       <c r="B48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="21"/>
@@ -1510,7 +1517,7 @@
       <c r="B49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="33" t="s">
@@ -1534,7 +1541,7 @@
       <c r="B51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="21"/>
@@ -1552,17 +1559,17 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="9">
         <v>39630</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="22"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -1602,7 +1609,7 @@
       <c r="B57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="21"/>
@@ -1612,58 +1619,92 @@
       <c r="B58" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="54"/>
+      <c r="B59" s="12" t="s">
         <v>50</v>
       </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
-        <v>39995</v>
+      <c r="A60" s="53">
+        <v>40360</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="33" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="M23:M24"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
